--- a/2-1试验数据/3第二批Q890角焊缝试验201901/承载能力与变形能力.xlsx
+++ b/2-1试验数据/3第二批Q890角焊缝试验201901/承载能力与变形能力.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\1毕业课题\2-1试验数据\3第二批Q890角焊缝试验201901\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1毕业课题\#Graduate-thesis\2-1试验数据\3第二批Q890角焊缝试验201901\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="承载能力与变形能力" sheetId="1" r:id="rId1"/>
@@ -475,38 +475,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -581,6 +557,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2062,3679 +2062,3674 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC25" sqref="AC25"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="20" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="20" customWidth="1"/>
-    <col min="5" max="13" width="4.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.75" style="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9" style="24"/>
-    <col min="21" max="21" width="4.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="26" max="31" width="9" style="24"/>
-    <col min="32" max="32" width="9" style="27"/>
-    <col min="33" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="3.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="16" customWidth="1"/>
+    <col min="5" max="13" width="4.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9" style="18"/>
+    <col min="21" max="21" width="4.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="7.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="9" style="18"/>
+    <col min="32" max="32" width="9" style="19"/>
+    <col min="33" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="46" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="20" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="28"/>
-    </row>
-    <row r="3" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="20"/>
+    </row>
+    <row r="3" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21">
         <v>0</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="23">
         <v>487.75299999999999</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="23">
         <v>355.53739999999999</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="23">
         <v>0.57099999999999995</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="23">
         <v>0.47</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="23">
         <v>0.52</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="23">
         <f>ABS(E3-F3)</f>
         <v>0.10099999999999998</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="24">
         <f>H3/G3</f>
         <v>0.19423076923076918</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="23">
         <v>1.0629999999999999</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="23">
         <v>0.76300000000000001</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="23">
         <v>0.91300000000000003</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="23">
         <f>ABS(J3-K3)</f>
         <v>0.29999999999999993</v>
       </c>
-      <c r="N3" s="32">
+      <c r="N3" s="24">
         <f>M3/L3</f>
         <v>0.32858707557502731</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="23">
         <f>D3/C3</f>
         <v>0.72892919161952874</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="23">
         <f>L3/G3</f>
         <v>1.7557692307692307</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="26">
         <v>144</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="28">
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="20">
         <v>0</v>
       </c>
-      <c r="V3" s="35">
+      <c r="V3" s="27">
         <f>SUMIF($A$3:$A$50,U3,$C$3:$C$50)/COUNTIF($A$3:$A$50,U3)</f>
-        <v>536.15533333333337</v>
-      </c>
-      <c r="W3" s="35">
+        <v>536.2343166666667</v>
+      </c>
+      <c r="W3" s="27">
         <f>SUMIF($A$3:$A$50,U3,$D$3:$D$50)/COUNTIF($A$3:$A$50,U3)</f>
-        <v>311.5489</v>
-      </c>
-      <c r="X3" s="35">
+        <v>435.10519999999991</v>
+      </c>
+      <c r="X3" s="27">
         <f>(SUM(C3:C8)-MAX(C3:C8)-MIN(C3:C8))/4</f>
-        <v>539.32400000000007</v>
-      </c>
-      <c r="Y3" s="35">
+        <v>539.44245000000001</v>
+      </c>
+      <c r="Y3" s="27">
         <f>(SUM(D3:D8)-MAX(D3:D8)-MIN(D3:D8))/4</f>
-        <v>316.76830000000001</v>
-      </c>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="37"/>
-    </row>
-    <row r="4" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29">
+        <v>433.85104999999982</v>
+      </c>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="29"/>
+    </row>
+    <row r="4" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21">
         <v>0</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
-        <v>456.00200000000001</v>
-      </c>
-      <c r="D4" s="31">
-        <v>246.68279999999999</v>
-      </c>
-      <c r="E4" s="31">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="F4" s="31">
-        <v>0.214</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="H4" s="31">
+      <c r="C4" s="23">
+        <v>456.0018</v>
+      </c>
+      <c r="D4" s="23">
+        <v>371.596</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.36955100000000041</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.23698400000000053</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.30326750000000047</v>
+      </c>
+      <c r="H4" s="23">
         <f t="shared" ref="H4:H50" si="0">ABS(E4-F4)</f>
-        <v>0.11500000000000002</v>
-      </c>
-      <c r="I4" s="32">
+        <v>0.13256699999999988</v>
+      </c>
+      <c r="I4" s="24">
         <f t="shared" ref="I4:I50" si="1">H4/G4</f>
-        <v>0.42279411764705888</v>
-      </c>
-      <c r="J4" s="31">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="K4" s="31">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="L4" s="31">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="M4" s="31">
+        <v>0.43712893732430835</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0.46962700000000002</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0.29672400000000021</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0.38317550000000011</v>
+      </c>
+      <c r="M4" s="23">
         <f t="shared" ref="M4:M50" si="2">ABS(J4-K4)</f>
-        <v>0.52</v>
-      </c>
-      <c r="N4" s="32">
+        <v>0.17290299999999981</v>
+      </c>
+      <c r="N4" s="24">
         <f t="shared" ref="N4:N50" si="3">M4/L4</f>
-        <v>0.55026455026455035</v>
-      </c>
-      <c r="O4" s="31">
+        <v>0.4512370963174831</v>
+      </c>
+      <c r="O4" s="23">
         <f t="shared" ref="O4:O50" si="4">D4/C4</f>
-        <v>0.54096867996192999</v>
-      </c>
-      <c r="P4" s="31">
+        <v>0.81490029206025061</v>
+      </c>
+      <c r="P4" s="23">
         <f t="shared" ref="P4:P50" si="5">L4/G4</f>
-        <v>3.4742647058823524</v>
-      </c>
-      <c r="Q4" s="38" t="s">
+        <v>1.263490153082673</v>
+      </c>
+      <c r="Q4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="34">
-        <v>184</v>
-      </c>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="28">
+      <c r="R4" s="26">
+        <v>194</v>
+      </c>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="20">
         <v>15</v>
       </c>
-      <c r="V4" s="35">
+      <c r="V4" s="27">
         <f t="shared" ref="V4:V10" si="6">SUMIF($A$3:$A$50,U4,$C$3:$C$50)/COUNTIF($A$3:$A$50,U4)</f>
         <v>776.48683333333327</v>
       </c>
-      <c r="W4" s="35">
+      <c r="W4" s="27">
         <f t="shared" ref="W4:W10" si="7">SUMIF($A$3:$A$50,U4,$D$3:$D$50)/COUNTIF($A$3:$A$50,U4)</f>
         <v>702.84096666666665</v>
       </c>
-      <c r="X4" s="35">
+      <c r="X4" s="27">
         <f>(SUM(C9:C14)-MAX(C9:C14)-MIN(C9:C14))/4</f>
         <v>775.53774999999985</v>
       </c>
-      <c r="Y4" s="35">
+      <c r="Y4" s="27">
         <f>(SUM(D9:D14)-MAX(D9:D14)-MIN(D9:D14))/4</f>
         <v>710.5883</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="37"/>
-    </row>
-    <row r="5" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29">
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="29"/>
+    </row>
+    <row r="5" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21">
         <v>0</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31">
-        <v>603.63400000000001</v>
-      </c>
-      <c r="D5" s="31">
-        <v>260.18090000000001</v>
-      </c>
-      <c r="E5" s="31">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F5" s="31">
-        <v>0.158</v>
-      </c>
-      <c r="G5" s="31">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="H5" s="31">
+      <c r="C5" s="23">
+        <v>603.63430000000005</v>
+      </c>
+      <c r="D5" s="23">
+        <v>502.2509</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.17679400000000012</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.21759400000000007</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.19719400000000009</v>
+      </c>
+      <c r="H5" s="23">
         <f t="shared" si="0"/>
-        <v>2.4999999999999994E-2</v>
-      </c>
-      <c r="I5" s="32">
+        <v>4.0799999999999947E-2</v>
+      </c>
+      <c r="I5" s="24">
         <f t="shared" si="1"/>
-        <v>0.17241379310344826</v>
-      </c>
-      <c r="J5" s="31">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="K5" s="31">
-        <v>0.3</v>
-      </c>
-      <c r="L5" s="31">
-        <v>0.253</v>
-      </c>
-      <c r="M5" s="31">
+        <v>0.20690284694260438</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0.84628899999999962</v>
+      </c>
+      <c r="K5" s="23">
+        <v>1.1074609999999998</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0.97687499999999972</v>
+      </c>
+      <c r="M5" s="23">
         <f t="shared" si="2"/>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="N5" s="32">
+        <v>0.26117200000000018</v>
+      </c>
+      <c r="N5" s="24">
         <f t="shared" si="3"/>
-        <v>0.3675889328063241</v>
-      </c>
-      <c r="O5" s="31">
-        <f t="shared" si="4"/>
-        <v>0.43102426304681313</v>
-      </c>
-      <c r="P5" s="31">
+        <v>0.26735457453614869</v>
+      </c>
+      <c r="O5" s="23">
+        <f t="shared" si="4"/>
+        <v>0.83204499810564103</v>
+      </c>
+      <c r="P5" s="23">
         <f t="shared" si="5"/>
-        <v>1.7448275862068967</v>
-      </c>
-      <c r="Q5" s="33" t="s">
+        <v>4.9538779070357073</v>
+      </c>
+      <c r="Q5" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="26">
         <v>245</v>
       </c>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="28">
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="20">
         <v>30</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5" s="27">
         <f t="shared" si="6"/>
         <v>1079.0108333333335</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="27">
         <f t="shared" si="7"/>
         <v>1006.0505166666667</v>
       </c>
-      <c r="X5" s="35">
+      <c r="X5" s="27">
         <f>(SUM(C15:C20)-MAX(C15:C20)-MIN(C15:C20))/4</f>
         <v>1110.23225</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="Y5" s="27">
         <f>(SUM(D15:D20)-MAX(D15:D20)-MIN(D15:D20))/4</f>
         <v>1023.2448499999999</v>
       </c>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="37"/>
-    </row>
-    <row r="6" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29">
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="29"/>
+    </row>
+    <row r="6" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21">
         <v>0</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="31">
-        <v>512.16099999999994</v>
-      </c>
-      <c r="D6" s="31">
-        <v>342.28309999999999</v>
-      </c>
-      <c r="E6" s="31">
-        <v>0.115</v>
-      </c>
-      <c r="F6" s="31">
-        <v>0.128</v>
-      </c>
-      <c r="G6" s="31">
-        <v>0.122</v>
-      </c>
-      <c r="H6" s="31">
+      <c r="C6" s="23">
+        <v>512.63480000000004</v>
+      </c>
+      <c r="D6" s="23">
+        <v>387.74149999999997</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.25037299999999973</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.27208100000000002</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.26122699999999988</v>
+      </c>
+      <c r="H6" s="23">
         <f t="shared" si="0"/>
-        <v>1.2999999999999998E-2</v>
-      </c>
-      <c r="I6" s="32">
+        <v>2.1708000000000283E-2</v>
+      </c>
+      <c r="I6" s="24">
         <f t="shared" si="1"/>
-        <v>0.10655737704918031</v>
-      </c>
-      <c r="J6" s="31">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="K6" s="31">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="L6" s="31">
-        <v>0.125</v>
-      </c>
-      <c r="M6" s="31">
+        <v>8.3100138959603304E-2</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0.88507900000000017</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0.86508000000000074</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0.87507950000000045</v>
+      </c>
+      <c r="M6" s="23">
         <f t="shared" si="2"/>
-        <v>1.5000000000000013E-2</v>
-      </c>
-      <c r="N6" s="32">
+        <v>1.9998999999999434E-2</v>
+      </c>
+      <c r="N6" s="24">
         <f t="shared" si="3"/>
-        <v>0.12000000000000011</v>
-      </c>
-      <c r="O6" s="31">
-        <f t="shared" si="4"/>
-        <v>0.66831152703934904</v>
-      </c>
-      <c r="P6" s="31">
+        <v>2.2853923557801803E-2</v>
+      </c>
+      <c r="O6" s="23">
+        <f t="shared" si="4"/>
+        <v>0.75636983677268876</v>
+      </c>
+      <c r="P6" s="23">
         <f t="shared" si="5"/>
-        <v>1.0245901639344261</v>
-      </c>
-      <c r="Q6" s="33" t="s">
+        <v>3.3498815206697659</v>
+      </c>
+      <c r="Q6" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="34">
+      <c r="R6" s="26">
         <v>136</v>
       </c>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="39" t="s">
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="V6" s="35">
+      <c r="V6" s="27">
         <f t="shared" si="6"/>
-        <v>959.43433333333348</v>
-      </c>
-      <c r="W6" s="35">
+        <v>959.23443333333341</v>
+      </c>
+      <c r="W6" s="27">
         <f t="shared" si="7"/>
         <v>878.63236666666671</v>
       </c>
-      <c r="X6" s="35">
+      <c r="X6" s="27">
         <f>(SUM(C21:C26)-MAX(C21:C26)-MIN(C21:C26))/4</f>
         <v>965.06600000000003</v>
       </c>
-      <c r="Y6" s="35">
+      <c r="Y6" s="27">
         <f>(SUM(D21:D26)-MAX(D21:D26)-MIN(D21:D26))/4</f>
         <v>894.73985000000005</v>
       </c>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="37"/>
-    </row>
-    <row r="7" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29">
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="29"/>
+    </row>
+    <row r="7" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21">
         <v>0</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="31">
-        <v>576.15200000000004</v>
-      </c>
-      <c r="D7" s="31">
-        <v>332.43970000000002</v>
-      </c>
-      <c r="E7" s="31">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="F7" s="31">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="G7" s="31">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="H7" s="31">
+      <c r="C7" s="23">
+        <v>576.15240000000006</v>
+      </c>
+      <c r="D7" s="23">
+        <v>519.68959999999993</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.62905000000000033</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0.42447300000000077</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0.52676150000000055</v>
+      </c>
+      <c r="H7" s="23">
         <f t="shared" si="0"/>
-        <v>8.1999999999999962E-2</v>
-      </c>
-      <c r="I7" s="32">
+        <v>0.20457699999999956</v>
+      </c>
+      <c r="I7" s="24">
         <f t="shared" si="1"/>
-        <v>0.26973684210526305</v>
-      </c>
-      <c r="J7" s="31">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="K7" s="31">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="L7" s="31">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="M7" s="31">
+        <v>0.38836741105794437</v>
+      </c>
+      <c r="J7" s="23">
+        <v>1.1893070000000003</v>
+      </c>
+      <c r="K7" s="23">
+        <v>0.80783999999999967</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0.9985735</v>
+      </c>
+      <c r="M7" s="23">
         <f t="shared" si="2"/>
-        <v>0.10899999999999999</v>
-      </c>
-      <c r="N7" s="32">
+        <v>0.38146700000000067</v>
+      </c>
+      <c r="N7" s="24">
         <f t="shared" si="3"/>
-        <v>0.3019390581717451</v>
-      </c>
-      <c r="O7" s="31">
-        <f t="shared" si="4"/>
-        <v>0.57699999305738758</v>
-      </c>
-      <c r="P7" s="31">
+        <v>0.38201194003245698</v>
+      </c>
+      <c r="O7" s="23">
+        <f t="shared" si="4"/>
+        <v>0.90200023466013479</v>
+      </c>
+      <c r="P7" s="23">
         <f t="shared" si="5"/>
-        <v>1.1875</v>
-      </c>
-      <c r="Q7" s="33" t="s">
+        <v>1.8956842897592154</v>
+      </c>
+      <c r="Q7" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="26">
         <v>379</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="39" t="s">
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7" s="27">
         <f t="shared" si="6"/>
         <v>665.54166666666663</v>
       </c>
-      <c r="W7" s="35">
+      <c r="W7" s="27">
         <f t="shared" si="7"/>
         <v>616.46033333333332</v>
       </c>
-      <c r="X7" s="35">
+      <c r="X7" s="27">
         <f>(SUM(C27:C32)-MAX(C27:C32)-MIN(C27:C32))/4</f>
         <v>669.13750000000005</v>
       </c>
-      <c r="Y7" s="35">
+      <c r="Y7" s="27">
         <f>(SUM(D27:D32)-MAX(D27:D32)-MIN(D27:D32))/4</f>
         <v>619.27297499999986</v>
       </c>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="37"/>
-    </row>
-    <row r="8" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29">
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="29"/>
+    </row>
+    <row r="8" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21">
         <v>0</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="31">
-        <v>581.23</v>
-      </c>
-      <c r="D8" s="31">
-        <v>332.16950000000003</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="F8" s="31">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="G8" s="31">
-        <v>0.27900000000000003</v>
-      </c>
-      <c r="H8" s="31">
+      <c r="C8" s="23">
+        <v>581.2296</v>
+      </c>
+      <c r="D8" s="23">
+        <v>473.81579999999997</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.44689200000000007</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.54419400000000007</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.49554300000000007</v>
+      </c>
+      <c r="H8" s="23">
         <f t="shared" si="0"/>
-        <v>1.5999999999999959E-2</v>
-      </c>
-      <c r="I8" s="32">
+        <v>9.7302E-2</v>
+      </c>
+      <c r="I8" s="24">
         <f t="shared" si="1"/>
-        <v>5.7347670250895905E-2</v>
-      </c>
-      <c r="J8" s="31">
-        <v>0.32300000000000001</v>
-      </c>
-      <c r="K8" s="31">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="L8" s="31">
-        <v>0.314</v>
-      </c>
-      <c r="M8" s="31">
+        <v>0.19635430225025877</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0.81560400000000044</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0.85717599999999994</v>
+      </c>
+      <c r="L8" s="23">
+        <v>0.83639000000000019</v>
+      </c>
+      <c r="M8" s="23">
         <f t="shared" si="2"/>
-        <v>1.8000000000000016E-2</v>
-      </c>
-      <c r="N8" s="32">
+        <v>4.1571999999999498E-2</v>
+      </c>
+      <c r="N8" s="24">
         <f t="shared" si="3"/>
-        <v>5.732484076433126E-2</v>
-      </c>
-      <c r="O8" s="31">
-        <f t="shared" si="4"/>
-        <v>0.57149407291433685</v>
-      </c>
-      <c r="P8" s="31">
+        <v>4.9704085414698271E-2</v>
+      </c>
+      <c r="O8" s="23">
+        <f t="shared" si="4"/>
+        <v>0.8151955784770768</v>
+      </c>
+      <c r="P8" s="23">
         <f t="shared" si="5"/>
-        <v>1.1254480286738351</v>
-      </c>
-      <c r="Q8" s="33" t="s">
+        <v>1.6878252744968651</v>
+      </c>
+      <c r="Q8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="34">
+      <c r="R8" s="26">
         <v>197</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="28">
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="20">
         <v>60</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8" s="27">
         <f t="shared" si="6"/>
         <v>605.673</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8" s="27">
         <f t="shared" si="7"/>
         <v>568.86760000000004</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="27">
         <f>(SUM(C33:C38)-MAX(C33:C38)-MIN(C33:C38))/4</f>
         <v>605.44450000000006</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Y8" s="27">
         <f>(SUM(D33:D38)-MAX(D33:D38)-MIN(D33:D38))/4</f>
         <v>567.84500000000003</v>
       </c>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="37"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="29"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A9" s="29">
+      <c r="A9" s="21">
         <v>15</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="33">
         <v>717.56200000000001</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="33">
         <v>702.49279999999999</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="33">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="33">
         <v>0.19600000000000001</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="33">
         <v>0.18</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="33">
         <f t="shared" si="0"/>
         <v>3.1E-2</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="34">
         <f t="shared" si="1"/>
         <v>0.17222222222222222</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="33">
         <v>0.17</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="33">
         <v>0.2</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="33">
         <v>0.185</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="33">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
-      <c r="N9" s="42">
+      <c r="N9" s="34">
         <f t="shared" si="3"/>
         <v>0.16216216216216217</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="33">
         <f t="shared" si="4"/>
         <v>0.97899944534409566</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="33">
         <f t="shared" si="5"/>
         <v>1.0277777777777779</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="17">
         <v>178</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="20">
         <v>75</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9" s="27">
         <f t="shared" si="6"/>
         <v>558.80316666666658</v>
       </c>
-      <c r="W9" s="35">
+      <c r="W9" s="27">
         <f t="shared" si="7"/>
         <v>511.46843333333339</v>
       </c>
-      <c r="X9" s="35">
+      <c r="X9" s="27">
         <f>(SUM(C39:C44)-MAX(C39:C44)-MIN(C39:C44))/4</f>
         <v>565.8929999999998</v>
       </c>
-      <c r="Y9" s="35">
+      <c r="Y9" s="27">
         <f>(SUM(D39:D44)-MAX(D39:D44)-MIN(D39:D44))/4</f>
         <v>510.50655000000006</v>
       </c>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="36"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A10" s="29">
+      <c r="A10" s="21">
         <v>15</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="33">
         <v>746.93100000000004</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="33">
         <v>706.33969999999999</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="33">
         <v>0.27500000000000002</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="33">
         <v>0.36299999999999999</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="33">
         <v>0.31900000000000001</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="33">
         <f t="shared" si="0"/>
         <v>8.7999999999999967E-2</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="34">
         <f t="shared" si="1"/>
         <v>0.27586206896551713</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="33">
         <v>0.32100000000000001</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="33">
         <v>0.443</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="33">
         <v>0.38200000000000001</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="33">
         <f t="shared" si="2"/>
         <v>0.122</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="34">
         <f t="shared" si="3"/>
         <v>0.3193717277486911</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="33">
         <f t="shared" si="4"/>
         <v>0.94565589057088262</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="33">
         <f t="shared" si="5"/>
         <v>1.1974921630094044</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="17">
         <v>238</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="20">
         <v>90</v>
       </c>
-      <c r="V10" s="35">
+      <c r="V10" s="27">
         <f t="shared" si="6"/>
         <v>556.46007999999995</v>
       </c>
-      <c r="W10" s="35">
+      <c r="W10" s="27">
         <f t="shared" si="7"/>
         <v>532.84753333333322</v>
       </c>
-      <c r="X10" s="35">
+      <c r="X10" s="27">
         <f>(SUM(C45:C50)-MAX(C45:C50)-MIN(C45:C50))/4</f>
         <v>559.67732000000001</v>
       </c>
-      <c r="Y10" s="35">
+      <c r="Y10" s="27">
         <f>(SUM(D45:D50)-MAX(D45:D50)-MIN(D45:D50))/4</f>
         <v>535.70714999999984</v>
       </c>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="36"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A11" s="29">
+      <c r="A11" s="21">
         <v>15</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="33">
         <v>770.63800000000003</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="33">
         <v>753.07460000000003</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="33">
         <v>0.28799999999999998</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="33">
         <v>0.25</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="33">
         <v>0.26900000000000002</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="33">
         <f t="shared" si="0"/>
         <v>3.7999999999999978E-2</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="34">
         <f t="shared" si="1"/>
         <v>0.141263940520446</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="33">
         <v>0.374</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="33">
         <v>0.30099999999999999</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="33">
         <v>0.33700000000000002</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="33">
         <f t="shared" si="2"/>
         <v>7.3000000000000009E-2</v>
       </c>
-      <c r="N11" s="42">
+      <c r="N11" s="34">
         <f t="shared" si="3"/>
         <v>0.21661721068249259</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="33">
         <f t="shared" si="4"/>
         <v>0.97720927335532382</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="33">
         <f t="shared" si="5"/>
         <v>1.2527881040892193</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="Q11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="17">
         <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A12" s="29">
+      <c r="A12" s="21">
         <v>15</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="33">
         <v>772.72900000000004</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="33">
         <v>687.19240000000002</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="33">
         <v>0.57099999999999995</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="33">
         <v>0.35499999999999998</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="33">
         <v>0.46300000000000002</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="33">
         <f t="shared" si="0"/>
         <v>0.21599999999999997</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="34">
         <f t="shared" si="1"/>
         <v>0.46652267818574505</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="33">
         <v>0.68100000000000005</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="33">
         <v>0.434</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="33">
         <v>0.55800000000000005</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="33">
         <f t="shared" si="2"/>
         <v>0.24700000000000005</v>
       </c>
-      <c r="N12" s="42">
+      <c r="N12" s="34">
         <f t="shared" si="3"/>
         <v>0.44265232974910401</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="33">
         <f t="shared" si="4"/>
         <v>0.88930582390462887</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="33">
         <f t="shared" si="5"/>
         <v>1.2051835853131749</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="17">
         <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A13" s="29">
+      <c r="A13" s="21">
         <v>15</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="33">
         <v>811.85299999999995</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="33">
         <v>621.61800000000005</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="33">
         <v>0.27800000000000002</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="33">
         <v>0.38</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="33">
         <v>0.32900000000000001</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="33">
         <f t="shared" si="0"/>
         <v>0.10199999999999998</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="34">
         <f t="shared" si="1"/>
         <v>0.31003039513677805</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="33">
         <v>0.47499999999999998</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="33">
         <v>0.64400000000000002</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="33">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="33">
         <f t="shared" si="2"/>
         <v>0.16900000000000004</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="34">
         <f t="shared" si="3"/>
         <v>0.30178571428571432</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="33">
         <f t="shared" si="4"/>
         <v>0.76567802299184717</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="33">
         <f t="shared" si="5"/>
         <v>1.7021276595744681</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="Q13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="17">
         <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A14" s="29">
+      <c r="A14" s="21">
         <v>15</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="33">
         <v>839.20799999999997</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="33">
         <v>746.32830000000001</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="33">
         <v>0.36</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="33">
         <v>0.32300000000000001</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="33">
         <v>0.34200000000000003</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="33">
         <f t="shared" si="0"/>
         <v>3.6999999999999977E-2</v>
       </c>
-      <c r="I14" s="42">
+      <c r="I14" s="34">
         <f t="shared" si="1"/>
         <v>0.1081871345029239</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="33">
         <v>0.61299999999999999</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="33">
         <v>0.55100000000000005</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="33">
         <v>0.58199999999999996</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="33">
         <f t="shared" si="2"/>
         <v>6.1999999999999944E-2</v>
       </c>
-      <c r="N14" s="42">
+      <c r="N14" s="34">
         <f t="shared" si="3"/>
         <v>0.10652920962199304</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="33">
         <f t="shared" si="4"/>
         <v>0.88932457745874682</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="33">
         <f t="shared" si="5"/>
         <v>1.701754385964912</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="17">
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29">
+    <row r="15" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21">
         <v>30</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="23">
         <v>1077.3050000000001</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="23">
         <v>1059.6679999999999</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="23">
         <v>0.47699999999999998</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="23">
         <v>0.37</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="23">
         <v>0.42299999999999999</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="23">
         <f t="shared" si="0"/>
         <v>0.10699999999999998</v>
       </c>
-      <c r="I15" s="32">
+      <c r="I15" s="24">
         <f t="shared" si="1"/>
         <v>0.25295508274231676</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="23">
         <v>0.6</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="23">
         <v>0.438</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="23">
         <v>0.51900000000000002</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="23">
         <f t="shared" si="2"/>
         <v>0.16199999999999998</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="24">
         <f t="shared" si="3"/>
         <v>0.31213872832369938</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="23">
         <f t="shared" si="4"/>
         <v>0.98362859171729444</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="23">
         <f t="shared" si="5"/>
         <v>1.2269503546099292</v>
       </c>
-      <c r="Q15" s="33" t="s">
+      <c r="Q15" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="26">
         <v>297</v>
       </c>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="37"/>
-    </row>
-    <row r="16" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29">
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="29"/>
+    </row>
+    <row r="16" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21">
         <v>30</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="23">
         <v>1149.1479999999999</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="23">
         <v>1088.258</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="23">
         <v>0.52400000000000002</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="23">
         <v>0.50700000000000001</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="23">
         <v>0.51600000000000001</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="23">
         <f t="shared" si="0"/>
         <v>1.7000000000000015E-2</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="24">
         <f t="shared" si="1"/>
         <v>3.2945736434108558E-2</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="23">
         <v>0.56200000000000006</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="23">
         <v>0.53700000000000003</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="23">
         <f t="shared" si="2"/>
         <v>2.5000000000000022E-2</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="24">
         <f t="shared" si="3"/>
         <v>4.5454545454545491E-2</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="23">
         <f t="shared" si="4"/>
         <v>0.94701291739619275</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="23">
         <f t="shared" si="5"/>
         <v>1.0658914728682172</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="Q16" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R16" s="34">
+      <c r="R16" s="26">
         <v>410</v>
       </c>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="37"/>
-    </row>
-    <row r="17" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="29"/>
+    </row>
+    <row r="17" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21">
         <v>30</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="23">
         <v>1149.5640000000001</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="23">
         <v>1101.711</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="23">
         <v>0.36299999999999999</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="23">
         <v>0.42299999999999999</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="23">
         <v>0.39300000000000002</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="23">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="24">
         <f t="shared" si="1"/>
         <v>0.15267175572519082</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="23">
         <v>0.48699999999999999</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="23">
         <v>0.60399999999999998</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="23">
         <v>0.54500000000000004</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="23">
         <f t="shared" si="2"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="24">
         <f t="shared" si="3"/>
         <v>0.21467889908256879</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="23">
         <f t="shared" si="4"/>
         <v>0.95837291355679188</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="23">
         <f t="shared" si="5"/>
         <v>1.3867684478371503</v>
       </c>
-      <c r="Q17" s="33" t="s">
+      <c r="Q17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R17" s="34">
+      <c r="R17" s="26">
         <v>409</v>
       </c>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="37"/>
-    </row>
-    <row r="18" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29">
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="29"/>
+    </row>
+    <row r="18" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21">
         <v>30</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="23">
         <v>1153.413</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="23">
         <v>1100.0820000000001</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="23">
         <v>0.47</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="23">
         <v>0.307</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="23">
         <v>0.38900000000000001</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="23">
         <f t="shared" si="0"/>
         <v>0.16299999999999998</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="24">
         <f t="shared" si="1"/>
         <v>0.41902313624678655</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="23">
         <v>0.53700000000000003</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="23">
         <v>0.34100000000000003</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="23">
         <v>0.439</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="23">
         <f t="shared" si="2"/>
         <v>0.19600000000000001</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="24">
         <f t="shared" si="3"/>
         <v>0.44646924829157175</v>
       </c>
-      <c r="O18" s="31">
+      <c r="O18" s="23">
         <f t="shared" si="4"/>
         <v>0.95376244242088493</v>
       </c>
-      <c r="P18" s="31">
+      <c r="P18" s="23">
         <f t="shared" si="5"/>
         <v>1.1285347043701799</v>
       </c>
-      <c r="Q18" s="33" t="s">
+      <c r="Q18" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R18" s="34">
+      <c r="R18" s="26">
         <v>460</v>
       </c>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="37"/>
-    </row>
-    <row r="19" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29">
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="29"/>
+    </row>
+    <row r="19" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21">
         <v>30</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="23">
         <v>879.72299999999996</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="23">
         <v>844.97140000000002</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="23">
         <v>0.15</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="23">
         <v>0.25900000000000001</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="23">
         <v>0.20499999999999999</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="23">
         <f t="shared" si="0"/>
         <v>0.10900000000000001</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="24">
         <f t="shared" si="1"/>
         <v>0.53170731707317087</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="23">
         <v>0.17</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="23">
         <v>0.314</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="23">
         <v>0.24199999999999999</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="23">
         <f t="shared" si="2"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="24">
         <f t="shared" si="3"/>
         <v>0.5950413223140496</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="23">
         <f t="shared" si="4"/>
         <v>0.96049711102244695</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P19" s="23">
         <f t="shared" si="5"/>
         <v>1.1804878048780487</v>
       </c>
-      <c r="Q19" s="33" t="s">
+      <c r="Q19" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="26">
         <v>566</v>
       </c>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="37"/>
-    </row>
-    <row r="20" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29">
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="29"/>
+    </row>
+    <row r="20" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21">
         <v>30</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="23">
         <v>1064.912</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="23">
         <v>841.61270000000002</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="23">
         <v>0.44500000000000001</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="23">
         <v>0.46500000000000002</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="23">
         <v>0.45500000000000002</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="23">
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="24">
         <f t="shared" si="1"/>
         <v>4.3956043956043994E-2</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="23">
         <v>0.46200000000000002</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="23">
         <v>0.47699999999999998</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="23">
         <v>0.47</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="23">
         <f t="shared" si="2"/>
         <v>1.4999999999999958E-2</v>
       </c>
-      <c r="N20" s="32">
+      <c r="N20" s="24">
         <f t="shared" si="3"/>
         <v>3.1914893617021191E-2</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="23">
         <f t="shared" si="4"/>
         <v>0.79031196943972837</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="23">
         <f t="shared" si="5"/>
         <v>1.0329670329670328</v>
       </c>
-      <c r="Q20" s="33" t="s">
+      <c r="Q20" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R20" s="34">
+      <c r="R20" s="26">
         <v>489</v>
       </c>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="37"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="29"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="33">
         <v>943.81399999999996</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="33">
         <v>889.2713</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="33">
         <v>0.20799999999999999</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="33">
         <v>0.32700000000000001</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="33">
         <v>0.26800000000000002</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="33">
         <f t="shared" si="0"/>
         <v>0.11900000000000002</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="34">
         <f t="shared" si="1"/>
         <v>0.44402985074626872</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="33">
         <v>0.222</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="33">
         <v>0.35599999999999998</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="33">
         <v>0.28899999999999998</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="33">
         <f t="shared" si="2"/>
         <v>0.13399999999999998</v>
       </c>
-      <c r="N21" s="42">
+      <c r="N21" s="34">
         <f t="shared" si="3"/>
         <v>0.4636678200692041</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="33">
         <f t="shared" si="4"/>
         <v>0.94221032957764983</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="33">
         <f t="shared" si="5"/>
         <v>1.0783582089552237</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="17">
         <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="33">
         <v>963.27800000000002</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="33">
         <v>909.83879999999999</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="33">
         <v>0.17</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="33">
         <v>0.20200000000000001</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="33">
         <v>0.186</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="33">
         <f t="shared" si="0"/>
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I22" s="42">
+      <c r="I22" s="34">
         <f t="shared" si="1"/>
         <v>0.17204301075268819</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="33">
         <v>0.18099999999999999</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="33">
         <v>0.219</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="33">
         <v>0.2</v>
       </c>
-      <c r="M22" s="41">
+      <c r="M22" s="33">
         <f t="shared" si="2"/>
         <v>3.8000000000000006E-2</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="34">
         <f t="shared" si="3"/>
         <v>0.19000000000000003</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="33">
         <f t="shared" si="4"/>
         <v>0.94452359547295794</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="33">
         <f t="shared" si="5"/>
         <v>1.0752688172043012</v>
       </c>
-      <c r="Q22" s="20" t="s">
+      <c r="Q22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="17">
         <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="33">
         <v>957.755</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="33">
         <v>945.85299999999995</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="33">
         <v>0.27300000000000002</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="33">
         <v>0.31900000000000001</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="33">
         <v>0.29599999999999999</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="33">
         <f t="shared" si="0"/>
         <v>4.5999999999999985E-2</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="34">
         <f t="shared" si="1"/>
         <v>0.15540540540540537</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="33">
         <v>0.27900000000000003</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="33">
         <v>0.32700000000000001</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="33">
         <v>0.30299999999999999</v>
       </c>
-      <c r="M23" s="41">
+      <c r="M23" s="33">
         <f t="shared" si="2"/>
         <v>4.7999999999999987E-2</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23" s="34">
         <f t="shared" si="3"/>
         <v>0.15841584158415839</v>
       </c>
-      <c r="O23" s="41">
+      <c r="O23" s="33">
         <f t="shared" si="4"/>
         <v>0.98757302232825717</v>
       </c>
-      <c r="P23" s="41">
+      <c r="P23" s="33">
         <f t="shared" si="5"/>
         <v>1.0236486486486487</v>
       </c>
-      <c r="Q23" s="20" t="s">
+      <c r="Q23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="17">
         <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="33">
         <v>995.41700000000003</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="33">
         <v>936.30229999999995</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="33">
         <v>0.39800000000000002</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="33">
         <v>0.41</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="33">
         <v>0.40400000000000003</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="33">
         <f t="shared" si="0"/>
         <v>1.1999999999999955E-2</v>
       </c>
-      <c r="I24" s="42">
+      <c r="I24" s="34">
         <f t="shared" si="1"/>
         <v>2.9702970297029591E-2</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="33">
         <v>0.40899999999999997</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="33">
         <v>0.42</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="33">
         <v>0.41499999999999998</v>
       </c>
-      <c r="M24" s="41">
+      <c r="M24" s="33">
         <f t="shared" si="2"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="N24" s="42">
+      <c r="N24" s="34">
         <f t="shared" si="3"/>
         <v>2.6506024096385566E-2</v>
       </c>
-      <c r="O24" s="41">
+      <c r="O24" s="33">
         <f t="shared" si="4"/>
         <v>0.94061312997467383</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="33">
         <f t="shared" si="5"/>
         <v>1.027227722772277</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="Q24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R24" s="17">
         <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="33">
         <v>1004.676</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="33">
         <v>746.98180000000002</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="33">
         <v>0.22600000000000001</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="33">
         <v>0.217</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="33">
         <v>0.221</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="33">
         <f t="shared" si="0"/>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="34">
         <f t="shared" si="1"/>
         <v>4.0723981900452524E-2</v>
       </c>
-      <c r="J25" s="41">
+      <c r="J25" s="33">
         <v>0.23799999999999999</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="33">
         <v>0.224</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="33">
         <v>0.23100000000000001</v>
       </c>
-      <c r="M25" s="41">
+      <c r="M25" s="33">
         <f t="shared" si="2"/>
         <v>1.3999999999999985E-2</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="34">
         <f t="shared" si="3"/>
         <v>6.0606060606060538E-2</v>
       </c>
-      <c r="O25" s="41">
+      <c r="O25" s="33">
         <f t="shared" si="4"/>
         <v>0.7435051698258941</v>
       </c>
-      <c r="P25" s="41">
+      <c r="P25" s="33">
         <f t="shared" si="5"/>
         <v>1.0452488687782806</v>
       </c>
-      <c r="Q25" s="20" t="s">
+      <c r="Q25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="17">
         <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="41">
-        <v>891.66600000000005</v>
-      </c>
-      <c r="D26" s="41">
+      <c r="C26" s="33">
+        <v>890.46659999999997</v>
+      </c>
+      <c r="D26" s="33">
         <v>843.54700000000003</v>
       </c>
-      <c r="E26" s="41">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="F26" s="41">
-        <v>0.161</v>
-      </c>
-      <c r="G26" s="41">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="H26" s="41">
+      <c r="E26" s="33">
+        <v>0.25315300000000018</v>
+      </c>
+      <c r="F26" s="33">
+        <v>0.28395999999999955</v>
+      </c>
+      <c r="G26" s="33">
+        <v>0.26855649999999986</v>
+      </c>
+      <c r="H26" s="33">
+        <f t="shared" si="0"/>
+        <v>3.0806999999999363E-2</v>
+      </c>
+      <c r="I26" s="34">
+        <f t="shared" si="1"/>
+        <v>0.11471329124411205</v>
+      </c>
+      <c r="J26" s="33">
+        <v>0.27626400000000029</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0.31373899999999999</v>
+      </c>
+      <c r="L26" s="33">
+        <v>0.29500150000000014</v>
+      </c>
+      <c r="M26" s="33">
+        <f t="shared" si="2"/>
+        <v>3.7474999999999703E-2</v>
+      </c>
+      <c r="N26" s="34">
+        <f t="shared" si="3"/>
+        <v>0.12703325237329194</v>
+      </c>
+      <c r="O26" s="33">
+        <f t="shared" si="4"/>
+        <v>0.94730897262176939</v>
+      </c>
+      <c r="P26" s="33">
+        <f t="shared" si="5"/>
+        <v>1.0984708990473151</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26" s="17">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23">
+        <v>635.51800000000003</v>
+      </c>
+      <c r="D27" s="23">
+        <v>616.9117</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F27" s="23">
+        <v>0.247</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="H27" s="23">
         <f t="shared" si="0"/>
         <v>4.300000000000001E-2</v>
       </c>
-      <c r="I26" s="42">
-        <f t="shared" si="1"/>
-        <v>0.30935251798561159</v>
-      </c>
-      <c r="J26" s="41">
-        <v>0.12</v>
-      </c>
-      <c r="K26" s="41">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="L26" s="41">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="M26" s="41">
-        <f t="shared" si="2"/>
-        <v>4.9000000000000016E-2</v>
-      </c>
-      <c r="N26" s="42">
-        <f t="shared" si="3"/>
-        <v>0.3402777777777779</v>
-      </c>
-      <c r="O26" s="41">
-        <f t="shared" si="4"/>
-        <v>0.94603472600727179</v>
-      </c>
-      <c r="P26" s="41">
-        <f t="shared" si="5"/>
-        <v>1.0359712230215825</v>
-      </c>
-      <c r="Q26" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="R26" s="23">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="31">
-        <v>635.51800000000003</v>
-      </c>
-      <c r="D27" s="31">
-        <v>616.9117</v>
-      </c>
-      <c r="E27" s="31">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="F27" s="31">
-        <v>0.247</v>
-      </c>
-      <c r="G27" s="31">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="H27" s="31">
-        <f t="shared" si="0"/>
-        <v>4.300000000000001E-2</v>
-      </c>
-      <c r="I27" s="32">
+      <c r="I27" s="24">
         <f t="shared" si="1"/>
         <v>0.19026548672566376</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="23">
         <v>0.20599999999999999</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="23">
         <v>0.25</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="23">
         <v>0.22800000000000001</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="23">
         <f t="shared" si="2"/>
         <v>4.4000000000000011E-2</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="24">
         <f t="shared" si="3"/>
         <v>0.19298245614035092</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O27" s="23">
         <f t="shared" si="4"/>
         <v>0.97072262312003743</v>
       </c>
-      <c r="P27" s="31">
+      <c r="P27" s="23">
         <f t="shared" si="5"/>
         <v>1.0088495575221239</v>
       </c>
-      <c r="Q27" s="33" t="s">
+      <c r="Q27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R27" s="34">
+      <c r="R27" s="26">
         <v>137</v>
       </c>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="37"/>
-    </row>
-    <row r="28" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29" t="s">
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="29"/>
+    </row>
+    <row r="28" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="23">
         <v>675.87099999999998</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="23">
         <v>669.31700000000001</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="23">
         <v>0.28499999999999998</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="23">
         <v>0.39100000000000001</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="23">
         <v>0.33800000000000002</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="23">
         <f t="shared" si="0"/>
         <v>0.10600000000000004</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="24">
         <f t="shared" si="1"/>
         <v>0.3136094674556214</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="23">
         <v>0.30299999999999999</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="23">
         <v>0.435</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="23">
         <v>0.36899999999999999</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="23">
         <f t="shared" si="2"/>
         <v>0.13200000000000001</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="24">
         <f t="shared" si="3"/>
         <v>0.35772357723577236</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="23">
         <f t="shared" si="4"/>
         <v>0.99030288324251226</v>
       </c>
-      <c r="P28" s="31">
+      <c r="P28" s="23">
         <f t="shared" si="5"/>
         <v>1.0917159763313609</v>
       </c>
-      <c r="Q28" s="38" t="s">
+      <c r="Q28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R28" s="34">
+      <c r="R28" s="26">
         <v>206</v>
       </c>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="37"/>
-    </row>
-    <row r="29" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29" t="s">
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="29"/>
+    </row>
+    <row r="29" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="23">
         <v>658.32899999999995</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="23">
         <v>575.75429999999994</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="23">
         <v>0.254</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="23">
         <v>0.36899999999999999</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="23">
         <v>0.312</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="23">
         <f t="shared" si="0"/>
         <v>0.11499999999999999</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="24">
         <f t="shared" si="1"/>
         <v>0.36858974358974356</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="23">
         <v>0.26400000000000001</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="23">
         <v>0.40500000000000003</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="23">
         <v>0.33400000000000002</v>
       </c>
-      <c r="M29" s="31">
+      <c r="M29" s="23">
         <f t="shared" si="2"/>
         <v>0.14100000000000001</v>
       </c>
-      <c r="N29" s="32">
+      <c r="N29" s="24">
         <f t="shared" si="3"/>
         <v>0.42215568862275449</v>
       </c>
-      <c r="O29" s="31">
+      <c r="O29" s="23">
         <f t="shared" si="4"/>
         <v>0.8745692503292426</v>
       </c>
-      <c r="P29" s="31">
+      <c r="P29" s="23">
         <f t="shared" si="5"/>
         <v>1.0705128205128205</v>
       </c>
-      <c r="Q29" s="38" t="s">
+      <c r="Q29" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="34">
+      <c r="R29" s="26">
         <v>223</v>
       </c>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="37"/>
-    </row>
-    <row r="30" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29" t="s">
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="29"/>
+    </row>
+    <row r="30" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="23">
         <v>681.18200000000002</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="23">
         <v>619.86569999999995</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="23">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="23">
         <v>0.46700000000000003</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="23">
         <v>0.44600000000000001</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="23">
         <f t="shared" si="0"/>
         <v>4.2000000000000037E-2</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I30" s="24">
         <f t="shared" si="1"/>
         <v>9.4170403587444024E-2</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="23">
         <v>0.44400000000000001</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K30" s="23">
         <v>0.50800000000000001</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="23">
         <v>0.47599999999999998</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="23">
         <f t="shared" si="2"/>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N30" s="32">
+      <c r="N30" s="24">
         <f t="shared" si="3"/>
         <v>0.13445378151260506</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="23">
         <f t="shared" si="4"/>
         <v>0.90998543707848989</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P30" s="23">
         <f t="shared" si="5"/>
         <v>1.0672645739910314</v>
       </c>
-      <c r="Q30" s="33" t="s">
+      <c r="Q30" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R30" s="34">
+      <c r="R30" s="26">
         <v>180</v>
       </c>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="37"/>
-    </row>
-    <row r="31" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="29" t="s">
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="29"/>
+    </row>
+    <row r="31" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="23">
         <v>677.05100000000004</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="23">
         <v>664.56020000000001</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="23">
         <v>0.375</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="23">
         <v>0.47199999999999998</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="23">
         <v>0.42299999999999999</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="23">
         <f t="shared" si="0"/>
         <v>9.6999999999999975E-2</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I31" s="24">
         <f t="shared" si="1"/>
         <v>0.22931442080378245</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="23">
         <v>0.379</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K31" s="23">
         <v>0.47799999999999998</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="23">
         <v>0.42799999999999999</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="23">
         <f t="shared" si="2"/>
         <v>9.8999999999999977E-2</v>
       </c>
-      <c r="N31" s="32">
+      <c r="N31" s="24">
         <f t="shared" si="3"/>
         <v>0.23130841121495321</v>
       </c>
-      <c r="O31" s="31">
+      <c r="O31" s="23">
         <f t="shared" si="4"/>
         <v>0.98155116822809507</v>
       </c>
-      <c r="P31" s="31">
+      <c r="P31" s="23">
         <f t="shared" si="5"/>
         <v>1.011820330969267</v>
       </c>
-      <c r="Q31" s="33" t="s">
+      <c r="Q31" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R31" s="34">
+      <c r="R31" s="26">
         <v>224</v>
       </c>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="37"/>
-    </row>
-    <row r="32" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="29" t="s">
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="29"/>
+    </row>
+    <row r="32" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="23">
         <v>665.29899999999998</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="23">
         <v>552.35310000000004</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="23">
         <v>0.43099999999999999</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="23">
         <v>0.58399999999999996</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="23">
         <v>0.50700000000000001</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="23">
         <f t="shared" si="0"/>
         <v>0.15299999999999997</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I32" s="24">
         <f t="shared" si="1"/>
         <v>0.30177514792899401</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="23">
         <v>0.46</v>
       </c>
-      <c r="K32" s="31">
+      <c r="K32" s="23">
         <v>0.67500000000000004</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="23">
         <v>0.56699999999999995</v>
       </c>
-      <c r="M32" s="31">
+      <c r="M32" s="23">
         <f t="shared" si="2"/>
         <v>0.21500000000000002</v>
       </c>
-      <c r="N32" s="32">
+      <c r="N32" s="24">
         <f t="shared" si="3"/>
         <v>0.37918871252204595</v>
       </c>
-      <c r="O32" s="31">
+      <c r="O32" s="23">
         <f t="shared" si="4"/>
         <v>0.83023287273842294</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="23">
         <f t="shared" si="5"/>
         <v>1.1183431952662721</v>
       </c>
-      <c r="Q32" s="38" t="s">
+      <c r="Q32" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="R32" s="34">
+      <c r="R32" s="26">
         <v>200</v>
       </c>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="37"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="29"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A33" s="29">
+      <c r="A33" s="21">
         <v>60</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="33">
         <v>612.69399999999996</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="33">
         <v>577.61360000000002</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="33">
         <v>0.27100000000000002</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="33">
         <v>0.34399999999999997</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="33">
         <v>0.308</v>
       </c>
-      <c r="H33" s="41">
+      <c r="H33" s="33">
         <f t="shared" si="0"/>
         <v>7.2999999999999954E-2</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="34">
         <f t="shared" si="1"/>
         <v>0.23701298701298687</v>
       </c>
-      <c r="J33" s="41">
+      <c r="J33" s="33">
         <v>0.28599999999999998</v>
       </c>
-      <c r="K33" s="41">
+      <c r="K33" s="33">
         <v>0.36299999999999999</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="33">
         <v>0.32500000000000001</v>
       </c>
-      <c r="M33" s="41">
+      <c r="M33" s="33">
         <f t="shared" si="2"/>
         <v>7.7000000000000013E-2</v>
       </c>
-      <c r="N33" s="42">
+      <c r="N33" s="34">
         <f t="shared" si="3"/>
         <v>0.23692307692307696</v>
       </c>
-      <c r="O33" s="41">
+      <c r="O33" s="33">
         <f t="shared" si="4"/>
         <v>0.94274401250869122</v>
       </c>
-      <c r="P33" s="41">
+      <c r="P33" s="33">
         <f t="shared" si="5"/>
         <v>1.0551948051948052</v>
       </c>
-      <c r="Q33" s="20" t="s">
+      <c r="Q33" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="17">
         <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A34" s="29">
+      <c r="A34" s="21">
         <v>60</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="33">
         <v>612.72799999999995</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="33">
         <v>565.96680000000003</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="33">
         <v>0.3</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="33">
         <v>0.35899999999999999</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="33">
         <v>0.33</v>
       </c>
-      <c r="H34" s="41">
+      <c r="H34" s="33">
         <f t="shared" si="0"/>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="34">
         <f t="shared" si="1"/>
         <v>0.17878787878787877</v>
       </c>
-      <c r="J34" s="41">
+      <c r="J34" s="33">
         <v>0.32100000000000001</v>
       </c>
-      <c r="K34" s="41">
+      <c r="K34" s="33">
         <v>0.38800000000000001</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="33">
         <v>0.35399999999999998</v>
       </c>
-      <c r="M34" s="41">
+      <c r="M34" s="33">
         <f t="shared" si="2"/>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="N34" s="42">
+      <c r="N34" s="34">
         <f t="shared" si="3"/>
         <v>0.18926553672316387</v>
       </c>
-      <c r="O34" s="41">
+      <c r="O34" s="33">
         <f t="shared" si="4"/>
         <v>0.92368359206695316</v>
       </c>
-      <c r="P34" s="41">
+      <c r="P34" s="33">
         <f t="shared" si="5"/>
         <v>1.0727272727272725</v>
       </c>
-      <c r="Q34" s="20" t="s">
+      <c r="Q34" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="17">
         <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A35" s="29">
+      <c r="A35" s="21">
         <v>60</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="33">
         <v>578.34699999999998</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="33">
         <v>533.20330000000001</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="33">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="33">
         <v>0.28599999999999998</v>
       </c>
-      <c r="G35" s="41">
+      <c r="G35" s="33">
         <v>0.23100000000000001</v>
       </c>
-      <c r="H35" s="41">
+      <c r="H35" s="33">
         <f t="shared" si="0"/>
         <v>0.11099999999999999</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="34">
         <f t="shared" si="1"/>
         <v>0.48051948051948046</v>
       </c>
-      <c r="J35" s="41">
+      <c r="J35" s="33">
         <v>0.183</v>
       </c>
-      <c r="K35" s="41">
+      <c r="K35" s="33">
         <v>0.30099999999999999</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="33">
         <v>0.24199999999999999</v>
       </c>
-      <c r="M35" s="41">
+      <c r="M35" s="33">
         <f t="shared" si="2"/>
         <v>0.11799999999999999</v>
       </c>
-      <c r="N35" s="42">
+      <c r="N35" s="34">
         <f t="shared" si="3"/>
         <v>0.48760330578512395</v>
       </c>
-      <c r="O35" s="41">
+      <c r="O35" s="33">
         <f t="shared" si="4"/>
         <v>0.92194357366771162</v>
       </c>
-      <c r="P35" s="41">
+      <c r="P35" s="33">
         <f t="shared" si="5"/>
         <v>1.0476190476190474</v>
       </c>
-      <c r="Q35" s="43" t="s">
+      <c r="Q35" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="R35" s="23">
+      <c r="R35" s="17">
         <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A36" s="29">
+      <c r="A36" s="21">
         <v>60</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="33">
         <v>636.55499999999995</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="33">
         <v>610.20860000000005</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="33">
         <v>0.34799999999999998</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="33">
         <v>0.35899999999999999</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="33">
         <v>0.35399999999999998</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H36" s="33">
         <f t="shared" si="0"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="I36" s="42">
+      <c r="I36" s="34">
         <f t="shared" si="1"/>
         <v>3.1073446327683645E-2</v>
       </c>
-      <c r="J36" s="41">
+      <c r="J36" s="33">
         <v>0.35499999999999998</v>
       </c>
-      <c r="K36" s="41">
+      <c r="K36" s="33">
         <v>0.36699999999999999</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="33">
         <v>0.36099999999999999</v>
       </c>
-      <c r="M36" s="41">
+      <c r="M36" s="33">
         <f t="shared" si="2"/>
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="N36" s="42">
+      <c r="N36" s="34">
         <f t="shared" si="3"/>
         <v>3.3240997229916927E-2</v>
       </c>
-      <c r="O36" s="41">
+      <c r="O36" s="33">
         <f t="shared" si="4"/>
         <v>0.9586109605611457</v>
       </c>
-      <c r="P36" s="41">
+      <c r="P36" s="33">
         <f t="shared" si="5"/>
         <v>1.0197740112994351</v>
       </c>
-      <c r="Q36" s="20" t="s">
+      <c r="Q36" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R36" s="23">
+      <c r="R36" s="17">
         <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A37" s="29">
+      <c r="A37" s="21">
         <v>60</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="33">
         <v>575.70500000000004</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="33">
         <v>531.61699999999996</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="33">
         <v>0.25700000000000001</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="33">
         <v>0.33100000000000002</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="33">
         <v>0.29399999999999998</v>
       </c>
-      <c r="H37" s="41">
+      <c r="H37" s="33">
         <f t="shared" si="0"/>
         <v>7.400000000000001E-2</v>
       </c>
-      <c r="I37" s="42">
+      <c r="I37" s="34">
         <f t="shared" si="1"/>
         <v>0.2517006802721089</v>
       </c>
-      <c r="J37" s="41">
+      <c r="J37" s="33">
         <v>0.25900000000000001</v>
       </c>
-      <c r="K37" s="41">
+      <c r="K37" s="33">
         <v>0.33500000000000002</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L37" s="33">
         <v>0.29699999999999999</v>
       </c>
-      <c r="M37" s="41">
+      <c r="M37" s="33">
         <f t="shared" si="2"/>
         <v>7.6000000000000012E-2</v>
       </c>
-      <c r="N37" s="42">
+      <c r="N37" s="34">
         <f t="shared" si="3"/>
         <v>0.25589225589225595</v>
       </c>
-      <c r="O37" s="41">
+      <c r="O37" s="33">
         <f t="shared" si="4"/>
         <v>0.92341911221893147</v>
       </c>
-      <c r="P37" s="41">
+      <c r="P37" s="33">
         <f t="shared" si="5"/>
         <v>1.010204081632653</v>
       </c>
-      <c r="Q37" s="20" t="s">
+      <c r="Q37" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R37" s="23">
+      <c r="R37" s="17">
         <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A38" s="29">
+      <c r="A38" s="21">
         <v>60</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="33">
         <v>618.00900000000001</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="33">
         <v>594.59630000000004</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="33">
         <v>0.26300000000000001</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="33">
         <v>0.29199999999999998</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="33">
         <v>0.27800000000000002</v>
       </c>
-      <c r="H38" s="41">
+      <c r="H38" s="33">
         <f t="shared" si="0"/>
         <v>2.899999999999997E-2</v>
       </c>
-      <c r="I38" s="42">
+      <c r="I38" s="34">
         <f t="shared" si="1"/>
         <v>0.10431654676258981</v>
       </c>
-      <c r="J38" s="41">
+      <c r="J38" s="33">
         <v>0.27</v>
       </c>
-      <c r="K38" s="41">
+      <c r="K38" s="33">
         <v>0.30199999999999999</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="33">
         <v>0.28599999999999998</v>
       </c>
-      <c r="M38" s="41">
+      <c r="M38" s="33">
         <f t="shared" si="2"/>
         <v>3.1999999999999973E-2</v>
       </c>
-      <c r="N38" s="42">
+      <c r="N38" s="34">
         <f t="shared" si="3"/>
         <v>0.1118881118881118</v>
       </c>
-      <c r="O38" s="41">
+      <c r="O38" s="33">
         <f t="shared" si="4"/>
         <v>0.96211592387813127</v>
       </c>
-      <c r="P38" s="41">
+      <c r="P38" s="33">
         <f t="shared" si="5"/>
         <v>1.028776978417266</v>
       </c>
-      <c r="Q38" s="20" t="s">
+      <c r="Q38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="R38" s="23">
+      <c r="R38" s="17">
         <v>321</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="29">
+    <row r="39" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="21">
         <v>75</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="23">
         <v>580.59199999999998</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="23">
         <v>580.59199999999998</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="23">
         <v>0.28599999999999998</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="23">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="23">
         <v>0.28299999999999997</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="23">
         <f t="shared" si="0"/>
         <v>5.9999999999999498E-3</v>
       </c>
-      <c r="I39" s="32">
+      <c r="I39" s="24">
         <f t="shared" si="1"/>
         <v>2.1201413427561662E-2</v>
       </c>
-      <c r="J39" s="31">
+      <c r="J39" s="23">
         <v>0.28599999999999998</v>
       </c>
-      <c r="K39" s="31">
+      <c r="K39" s="23">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L39" s="31">
+      <c r="L39" s="23">
         <v>0.28299999999999997</v>
       </c>
-      <c r="M39" s="31">
+      <c r="M39" s="23">
         <f t="shared" si="2"/>
         <v>5.9999999999999498E-3</v>
       </c>
-      <c r="N39" s="32">
+      <c r="N39" s="24">
         <f t="shared" si="3"/>
         <v>2.1201413427561662E-2</v>
       </c>
-      <c r="O39" s="31">
+      <c r="O39" s="23">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="P39" s="31">
+      <c r="P39" s="23">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q39" s="33" t="s">
+      <c r="Q39" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R39" s="34">
+      <c r="R39" s="26">
         <v>357</v>
       </c>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="37"/>
-    </row>
-    <row r="40" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="29">
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="29"/>
+    </row>
+    <row r="40" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="21">
         <v>75</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="23">
         <v>584.38199999999995</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="23">
         <v>487.52370000000002</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="23">
         <v>0.373</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="23">
         <v>0.374</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="23">
         <v>0.373</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="23">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="I40" s="32">
+      <c r="I40" s="24">
         <f t="shared" si="1"/>
         <v>2.6809651474530853E-3</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J40" s="23">
         <v>0.40300000000000002</v>
       </c>
-      <c r="K40" s="31">
+      <c r="K40" s="23">
         <v>0.40899999999999997</v>
       </c>
-      <c r="L40" s="31">
+      <c r="L40" s="23">
         <v>0.40600000000000003</v>
       </c>
-      <c r="M40" s="31">
+      <c r="M40" s="23">
         <f t="shared" si="2"/>
         <v>5.9999999999999498E-3</v>
       </c>
-      <c r="N40" s="32">
+      <c r="N40" s="24">
         <f t="shared" si="3"/>
         <v>1.4778325123152585E-2</v>
       </c>
-      <c r="O40" s="31">
+      <c r="O40" s="23">
         <f t="shared" si="4"/>
         <v>0.83425516186330184</v>
       </c>
-      <c r="P40" s="31">
+      <c r="P40" s="23">
         <f t="shared" si="5"/>
         <v>1.0884718498659518</v>
       </c>
-      <c r="Q40" s="33" t="s">
+      <c r="Q40" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R40" s="34">
+      <c r="R40" s="26">
         <v>336</v>
       </c>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="37"/>
-    </row>
-    <row r="41" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="29">
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="29"/>
+    </row>
+    <row r="41" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="21">
         <v>75</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="23">
         <v>557.74099999999999</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="23">
         <v>534.04830000000004</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="23">
         <v>0.32400000000000001</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="23">
         <v>0.309</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="23">
         <v>0.316</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H41" s="23">
         <f t="shared" si="0"/>
         <v>1.5000000000000013E-2</v>
       </c>
-      <c r="I41" s="32">
+      <c r="I41" s="24">
         <f t="shared" si="1"/>
         <v>4.7468354430379792E-2</v>
       </c>
-      <c r="J41" s="31">
+      <c r="J41" s="23">
         <v>0.40500000000000003</v>
       </c>
-      <c r="K41" s="31">
+      <c r="K41" s="23">
         <v>0.36699999999999999</v>
       </c>
-      <c r="L41" s="31">
+      <c r="L41" s="23">
         <v>0.38600000000000001</v>
       </c>
-      <c r="M41" s="31">
+      <c r="M41" s="23">
         <f t="shared" si="2"/>
         <v>3.8000000000000034E-2</v>
       </c>
-      <c r="N41" s="32">
+      <c r="N41" s="24">
         <f t="shared" si="3"/>
         <v>9.8445595854922366E-2</v>
       </c>
-      <c r="O41" s="31">
+      <c r="O41" s="23">
         <f t="shared" si="4"/>
         <v>0.95752024685293002</v>
       </c>
-      <c r="P41" s="31">
+      <c r="P41" s="23">
         <f t="shared" si="5"/>
         <v>1.2215189873417722</v>
       </c>
-      <c r="Q41" s="33" t="s">
+      <c r="Q41" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R41" s="34">
+      <c r="R41" s="26">
         <v>298</v>
       </c>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="24"/>
-      <c r="AB41" s="24"/>
-      <c r="AC41" s="24"/>
-      <c r="AD41" s="24"/>
-      <c r="AE41" s="24"/>
-      <c r="AF41" s="37"/>
-    </row>
-    <row r="42" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29">
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="29"/>
+    </row>
+    <row r="42" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="21">
         <v>75</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="23">
         <v>504.86500000000001</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="23">
         <v>446.19240000000002</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="23">
         <v>0.40300000000000002</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="23">
         <v>0.33</v>
       </c>
-      <c r="G42" s="31">
+      <c r="G42" s="23">
         <v>0.36599999999999999</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="23">
         <f t="shared" si="0"/>
         <v>7.3000000000000009E-2</v>
       </c>
-      <c r="I42" s="32">
+      <c r="I42" s="24">
         <f t="shared" si="1"/>
         <v>0.19945355191256833</v>
       </c>
-      <c r="J42" s="31">
+      <c r="J42" s="23">
         <v>0.433</v>
       </c>
-      <c r="K42" s="31">
+      <c r="K42" s="23">
         <v>0.34300000000000003</v>
       </c>
-      <c r="L42" s="31">
+      <c r="L42" s="23">
         <v>0.38800000000000001</v>
       </c>
-      <c r="M42" s="31">
+      <c r="M42" s="23">
         <f t="shared" si="2"/>
         <v>8.9999999999999969E-2</v>
       </c>
-      <c r="N42" s="32">
+      <c r="N42" s="24">
         <f t="shared" si="3"/>
         <v>0.23195876288659786</v>
       </c>
-      <c r="O42" s="31">
+      <c r="O42" s="23">
         <f t="shared" si="4"/>
         <v>0.88378556643855288</v>
       </c>
-      <c r="P42" s="31">
+      <c r="P42" s="23">
         <f t="shared" si="5"/>
         <v>1.0601092896174864</v>
       </c>
-      <c r="Q42" s="33" t="s">
+      <c r="Q42" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R42" s="34">
+      <c r="R42" s="26">
         <v>278</v>
       </c>
-      <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="37"/>
-    </row>
-    <row r="43" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="29">
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="29"/>
+    </row>
+    <row r="43" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="21">
         <v>75</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="23">
         <v>576.76700000000005</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="23">
         <v>517.97370000000001</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="23">
         <v>0.376</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="23">
         <v>0.40400000000000003</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="23">
         <v>0.39</v>
       </c>
-      <c r="H43" s="31">
+      <c r="H43" s="23">
         <f t="shared" si="0"/>
         <v>2.8000000000000025E-2</v>
       </c>
-      <c r="I43" s="32">
+      <c r="I43" s="24">
         <f t="shared" si="1"/>
         <v>7.1794871794871859E-2</v>
       </c>
-      <c r="J43" s="31">
+      <c r="J43" s="23">
         <v>0.41699999999999998</v>
       </c>
-      <c r="K43" s="31">
+      <c r="K43" s="23">
         <v>0.44800000000000001</v>
       </c>
-      <c r="L43" s="31">
+      <c r="L43" s="23">
         <v>0.432</v>
       </c>
-      <c r="M43" s="31">
+      <c r="M43" s="23">
         <f t="shared" si="2"/>
         <v>3.1000000000000028E-2</v>
       </c>
-      <c r="N43" s="32">
+      <c r="N43" s="24">
         <f t="shared" si="3"/>
         <v>7.1759259259259328E-2</v>
       </c>
-      <c r="O43" s="31">
+      <c r="O43" s="23">
         <f t="shared" si="4"/>
         <v>0.89806403625727538</v>
       </c>
-      <c r="P43" s="31">
+      <c r="P43" s="23">
         <f t="shared" si="5"/>
         <v>1.1076923076923075</v>
       </c>
-      <c r="Q43" s="33" t="s">
+      <c r="Q43" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R43" s="34">
+      <c r="R43" s="26">
         <v>357</v>
       </c>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="24"/>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="24"/>
-      <c r="AD43" s="24"/>
-      <c r="AE43" s="24"/>
-      <c r="AF43" s="37"/>
-    </row>
-    <row r="44" spans="1:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="29">
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
+      <c r="AB43" s="18"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="29"/>
+    </row>
+    <row r="44" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="21">
         <v>75</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="23">
         <v>548.47199999999998</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="23">
         <v>502.48050000000001</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="23">
         <v>0.311</v>
       </c>
-      <c r="F44" s="31">
+      <c r="F44" s="23">
         <v>0.30199999999999999</v>
       </c>
-      <c r="G44" s="31">
+      <c r="G44" s="23">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H44" s="31">
+      <c r="H44" s="23">
         <f t="shared" si="0"/>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="I44" s="32">
+      <c r="I44" s="24">
         <f t="shared" si="1"/>
         <v>2.941176470588238E-2</v>
       </c>
-      <c r="J44" s="31">
+      <c r="J44" s="23">
         <v>0.33300000000000002</v>
       </c>
-      <c r="K44" s="31">
+      <c r="K44" s="23">
         <v>0.32100000000000001</v>
       </c>
-      <c r="L44" s="31">
+      <c r="L44" s="23">
         <v>0.32700000000000001</v>
       </c>
-      <c r="M44" s="31">
+      <c r="M44" s="23">
         <f t="shared" si="2"/>
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="N44" s="32">
+      <c r="N44" s="24">
         <f t="shared" si="3"/>
         <v>3.6697247706422048E-2</v>
       </c>
-      <c r="O44" s="31">
+      <c r="O44" s="23">
         <f t="shared" si="4"/>
         <v>0.91614612961099207</v>
       </c>
-      <c r="P44" s="31">
+      <c r="P44" s="23">
         <f t="shared" si="5"/>
         <v>1.0686274509803921</v>
       </c>
-      <c r="Q44" s="33" t="s">
+      <c r="Q44" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="R44" s="34">
+      <c r="R44" s="26">
         <v>336</v>
       </c>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24"/>
-      <c r="AA44" s="24"/>
-      <c r="AB44" s="24"/>
-      <c r="AC44" s="24"/>
-      <c r="AD44" s="24"/>
-      <c r="AE44" s="24"/>
-      <c r="AF44" s="37"/>
-    </row>
-    <row r="45" spans="1:32" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="44">
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="18"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="29"/>
+    </row>
+    <row r="45" spans="1:32" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="36">
         <v>90</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="38">
         <v>571.57907999999998</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="38">
         <v>539.654</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="38">
         <v>0.40388000000000002</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="38">
         <v>0.33095999999999925</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="38">
         <v>0.36741999999999964</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="38">
         <f t="shared" si="0"/>
         <v>7.2920000000000762E-2</v>
       </c>
-      <c r="I45" s="47">
+      <c r="I45" s="39">
         <f t="shared" si="1"/>
         <v>0.19846497196668889</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="38">
         <v>0.44902599999999993</v>
       </c>
-      <c r="K45" s="46">
+      <c r="K45" s="38">
         <v>0.35319900000000004</v>
       </c>
-      <c r="L45" s="46">
+      <c r="L45" s="38">
         <v>0.40111249999999998</v>
       </c>
-      <c r="M45" s="46">
+      <c r="M45" s="38">
         <f t="shared" si="2"/>
         <v>9.5826999999999884E-2</v>
       </c>
-      <c r="N45" s="47">
+      <c r="N45" s="39">
         <f t="shared" si="3"/>
         <v>0.2389030508897127</v>
       </c>
-      <c r="O45" s="46">
+      <c r="O45" s="38">
         <f t="shared" si="4"/>
         <v>0.94414582143209302</v>
       </c>
-      <c r="P45" s="46">
+      <c r="P45" s="38">
         <f t="shared" si="5"/>
         <v>1.0917002340645594</v>
       </c>
-      <c r="Q45" s="48" t="s">
+      <c r="Q45" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="R45" s="49">
+      <c r="R45" s="41">
         <v>297</v>
       </c>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="24"/>
-      <c r="AB45" s="24"/>
-      <c r="AC45" s="24"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="24"/>
-      <c r="AF45" s="50"/>
-    </row>
-    <row r="46" spans="1:32" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="44">
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="18"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="42"/>
+    </row>
+    <row r="46" spans="1:32" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="36">
         <v>90</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="43">
         <v>501.33820000000003</v>
       </c>
-      <c r="D46" s="51">
+      <c r="D46" s="43">
         <v>481.93680000000001</v>
       </c>
-      <c r="E46" s="51">
+      <c r="E46" s="43">
         <v>0.31137199999999954</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="43">
         <v>0.2558069999999999</v>
       </c>
-      <c r="G46" s="51">
+      <c r="G46" s="43">
         <v>0.28358949999999972</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="38">
         <f t="shared" si="0"/>
         <v>5.5564999999999642E-2</v>
       </c>
-      <c r="I46" s="47">
+      <c r="I46" s="39">
         <f t="shared" si="1"/>
         <v>0.19593461676119778</v>
       </c>
-      <c r="J46" s="51">
+      <c r="J46" s="43">
         <v>0.32394500000000015</v>
       </c>
-      <c r="K46" s="51">
+      <c r="K46" s="43">
         <v>0.26347400000000043</v>
       </c>
-      <c r="L46" s="51">
+      <c r="L46" s="43">
         <v>0.29370950000000029</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="38">
         <f t="shared" si="2"/>
         <v>6.0470999999999719E-2</v>
       </c>
-      <c r="N46" s="47">
+      <c r="N46" s="39">
         <f t="shared" si="3"/>
         <v>0.20588710954191014</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="38">
         <f t="shared" si="4"/>
         <v>0.96130077460684216</v>
       </c>
-      <c r="P46" s="46">
+      <c r="P46" s="38">
         <f t="shared" si="5"/>
         <v>1.0356853832740653</v>
       </c>
-      <c r="Q46" s="48" t="s">
+      <c r="Q46" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="R46" s="49">
+      <c r="R46" s="41">
         <v>132</v>
       </c>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-      <c r="AB46" s="24"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="50"/>
-    </row>
-    <row r="47" spans="1:32" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="44">
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="18"/>
+      <c r="AB46" s="18"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="42"/>
+    </row>
+    <row r="47" spans="1:32" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="36">
         <v>90</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="43">
         <v>551.51509999999996</v>
       </c>
-      <c r="D47" s="51">
+      <c r="D47" s="43">
         <v>519.49249999999995</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="43">
         <v>0.41459199999999985</v>
       </c>
-      <c r="F47" s="51">
+      <c r="F47" s="43">
         <v>0.40360499999999977</v>
       </c>
-      <c r="G47" s="51">
+      <c r="G47" s="43">
         <v>0.40909849999999981</v>
       </c>
-      <c r="H47" s="46">
+      <c r="H47" s="38">
         <f t="shared" si="0"/>
         <v>1.098700000000008E-2</v>
       </c>
-      <c r="I47" s="47">
+      <c r="I47" s="39">
         <f t="shared" si="1"/>
         <v>2.6856612771740999E-2</v>
       </c>
-      <c r="J47" s="51">
+      <c r="J47" s="43">
         <v>0.4437730000000002</v>
       </c>
-      <c r="K47" s="51">
+      <c r="K47" s="43">
         <v>0.44533000000000023</v>
       </c>
-      <c r="L47" s="51">
+      <c r="L47" s="43">
         <v>0.44455150000000021</v>
       </c>
-      <c r="M47" s="46">
+      <c r="M47" s="38">
         <f t="shared" si="2"/>
         <v>1.5570000000000306E-3</v>
       </c>
-      <c r="N47" s="47">
+      <c r="N47" s="39">
         <f t="shared" si="3"/>
         <v>3.5024063578686154E-3</v>
       </c>
-      <c r="O47" s="46">
+      <c r="O47" s="38">
         <f t="shared" si="4"/>
         <v>0.94193703853258048</v>
       </c>
-      <c r="P47" s="46">
+      <c r="P47" s="38">
         <f t="shared" si="5"/>
         <v>1.0866612808406788</v>
       </c>
-      <c r="Q47" s="48" t="s">
+      <c r="Q47" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="R47" s="49">
+      <c r="R47" s="41">
         <v>236</v>
       </c>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="50"/>
-    </row>
-    <row r="48" spans="1:32" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="44">
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="42"/>
+    </row>
+    <row r="48" spans="1:32" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="36">
         <v>90</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="43">
         <v>549.40609999999992</v>
       </c>
-      <c r="D48" s="51">
+      <c r="D48" s="43">
         <v>526.8854</v>
       </c>
-      <c r="E48" s="51">
+      <c r="E48" s="43">
         <v>0.36550700000000003</v>
       </c>
-      <c r="F48" s="51">
+      <c r="F48" s="43">
         <v>0.30331699999999984</v>
       </c>
-      <c r="G48" s="51">
+      <c r="G48" s="43">
         <v>0.33441199999999993</v>
       </c>
-      <c r="H48" s="46">
+      <c r="H48" s="38">
         <f t="shared" si="0"/>
         <v>6.219000000000019E-2</v>
       </c>
-      <c r="I48" s="47">
+      <c r="I48" s="39">
         <f t="shared" si="1"/>
         <v>0.18596820688252874</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="43">
         <v>0.41599800000000009</v>
       </c>
-      <c r="K48" s="51">
+      <c r="K48" s="43">
         <v>0.33811099999999961</v>
       </c>
-      <c r="L48" s="51">
+      <c r="L48" s="43">
         <v>0.37705449999999985</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48" s="38">
         <f t="shared" si="2"/>
         <v>7.7887000000000484E-2</v>
       </c>
-      <c r="N48" s="47">
+      <c r="N48" s="39">
         <f t="shared" si="3"/>
         <v>0.20656695517491641</v>
       </c>
-      <c r="O48" s="46">
+      <c r="O48" s="38">
         <f t="shared" si="4"/>
         <v>0.95900900991088389</v>
       </c>
-      <c r="P48" s="46">
+      <c r="P48" s="38">
         <f t="shared" si="5"/>
         <v>1.1275148619068691</v>
       </c>
-      <c r="Q48" s="48" t="s">
+      <c r="Q48" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="R48" s="49">
+      <c r="R48" s="41">
         <v>294</v>
       </c>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="50"/>
-    </row>
-    <row r="49" spans="1:32" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="44">
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18"/>
+      <c r="AA48" s="18"/>
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="18"/>
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="42"/>
+    </row>
+    <row r="49" spans="1:32" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="36">
         <v>90</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="38">
         <v>598.71299999999997</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="38">
         <v>572.31979999999999</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="38">
         <v>0.31900000000000001</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="38">
         <v>0.33100000000000002</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="38">
         <v>0.32500000000000001</v>
       </c>
-      <c r="H49" s="46">
+      <c r="H49" s="38">
         <f t="shared" si="0"/>
         <v>1.2000000000000011E-2</v>
       </c>
-      <c r="I49" s="47">
+      <c r="I49" s="39">
         <f t="shared" si="1"/>
         <v>3.6923076923076954E-2</v>
       </c>
-      <c r="J49" s="46">
+      <c r="J49" s="38">
         <v>0.33100000000000002</v>
       </c>
-      <c r="K49" s="46">
+      <c r="K49" s="38">
         <v>0.34499999999999997</v>
       </c>
-      <c r="L49" s="46">
+      <c r="L49" s="38">
         <v>0.33800000000000002</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="38">
         <f t="shared" si="2"/>
         <v>1.3999999999999957E-2</v>
       </c>
-      <c r="N49" s="47">
+      <c r="N49" s="39">
         <f t="shared" si="3"/>
         <v>4.1420118343195138E-2</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="38">
         <f t="shared" si="4"/>
         <v>0.95591677481531223</v>
       </c>
-      <c r="P49" s="46">
+      <c r="P49" s="38">
         <f t="shared" si="5"/>
         <v>1.04</v>
       </c>
-      <c r="Q49" s="48" t="s">
+      <c r="Q49" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="R49" s="49">
+      <c r="R49" s="41">
         <v>349</v>
       </c>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
-      <c r="AF49" s="50"/>
-    </row>
-    <row r="50" spans="1:32" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="44">
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="42"/>
+    </row>
+    <row r="50" spans="1:32" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="36">
         <v>90</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="38">
         <v>566.20899999999995</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="38">
         <v>556.79669999999999</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="38">
         <v>0.26600000000000001</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="38">
         <v>0.33100000000000002</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="38">
         <v>0.29799999999999999</v>
       </c>
-      <c r="H50" s="46">
+      <c r="H50" s="38">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I50" s="47">
+      <c r="I50" s="39">
         <f t="shared" si="1"/>
         <v>0.21812080536912754</v>
       </c>
-      <c r="J50" s="46">
+      <c r="J50" s="38">
         <v>0.27400000000000002</v>
       </c>
-      <c r="K50" s="46">
+      <c r="K50" s="38">
         <v>0.34300000000000003</v>
       </c>
-      <c r="L50" s="46">
+      <c r="L50" s="38">
         <v>0.308</v>
       </c>
-      <c r="M50" s="46">
+      <c r="M50" s="38">
         <f t="shared" si="2"/>
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="N50" s="47">
+      <c r="N50" s="39">
         <f t="shared" si="3"/>
         <v>0.22402597402597405</v>
       </c>
-      <c r="O50" s="46">
+      <c r="O50" s="38">
         <f t="shared" si="4"/>
         <v>0.98337663301007228</v>
       </c>
-      <c r="P50" s="46">
+      <c r="P50" s="38">
         <f t="shared" si="5"/>
         <v>1.0335570469798658</v>
       </c>
-      <c r="Q50" s="48" t="s">
+      <c r="Q50" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="R50" s="49">
+      <c r="R50" s="41">
         <v>324</v>
       </c>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="50"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="42"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B51" s="45"/>
+      <c r="B51" s="37"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B52" s="45"/>
+      <c r="B52" s="37"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B53" s="45"/>
+      <c r="B53" s="37"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B54" s="45"/>
+      <c r="B54" s="37"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B55" s="45"/>
+      <c r="B55" s="37"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B56" s="45"/>
+      <c r="B56" s="37"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B57" s="45"/>
+      <c r="B57" s="37"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B58" s="45"/>
+      <c r="B58" s="37"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="B59" s="40"/>
+      <c r="B59" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="U1:U2"/>
@@ -5742,6 +5737,11 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5753,8 +5753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5773,37 +5773,37 @@
   <sheetData>
     <row r="1" spans="1:24" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="48" t="s">
         <v>67</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="48" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="14" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="48"/>
+      <c r="I2" s="51"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="18"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="48"/>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="V2" s="14" t="s">
